--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Serial #</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Installed Totals</t>
   </si>
   <si>
-    <t>Purchased Totals</t>
-  </si>
-  <si>
-    <t>2 KU15P are borrowed</t>
-  </si>
-  <si>
     <t>VU7P soldered</t>
   </si>
   <si>
@@ -140,12 +134,6 @@
     <t>25G x4 FireFly</t>
   </si>
   <si>
-    <t>VU7P used</t>
-  </si>
-  <si>
-    <t>KU15P used</t>
-  </si>
-  <si>
     <t>unused</t>
   </si>
   <si>
@@ -153,6 +141,12 @@
   </si>
   <si>
     <t>14G x12 FireFly</t>
+  </si>
+  <si>
+    <t>Used with KU15P</t>
+  </si>
+  <si>
+    <t>Used with VU7P</t>
   </si>
 </sst>
 </file>
@@ -188,10 +182,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -201,6 +198,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,63 +482,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="4"/>
-    <col min="3" max="4" width="11" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="4" customWidth="1"/>
-    <col min="6" max="7" width="11" style="4" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="10" width="11.42578125" style="4" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="5" customWidth="1"/>
+    <col min="6" max="7" width="11" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5"/>
+    <col min="9" max="10" width="11.42578125" style="5" customWidth="1"/>
+    <col min="11" max="12" width="11.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="J1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -546,22 +546,22 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0</v>
-      </c>
-      <c r="L2" s="4">
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
         <v>0</v>
       </c>
       <c r="N2" t="s">
@@ -575,28 +575,28 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>1</v>
-      </c>
-      <c r="I3" s="4">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="B3" s="5">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
         <v>3</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <v>4</v>
       </c>
       <c r="N3" t="s">
@@ -610,28 +610,28 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <v>2</v>
       </c>
-      <c r="H4" s="4">
-        <v>1</v>
-      </c>
-      <c r="I4" s="4">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
         <v>3</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="N4" t="s">
@@ -645,28 +645,28 @@
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1</v>
-      </c>
-      <c r="I5" s="4">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0</v>
-      </c>
-      <c r="L5" s="4">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="N5" t="s">
@@ -680,28 +680,28 @@
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
         <v>10</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
-        <v>1</v>
-      </c>
-      <c r="J6" s="4">
-        <v>1</v>
-      </c>
-      <c r="K6" s="4">
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
         <v>3</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <v>4</v>
       </c>
       <c r="N6" t="s">
@@ -715,22 +715,22 @@
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>0</v>
-      </c>
-      <c r="L7" s="4">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
         <v>0</v>
       </c>
       <c r="N7" t="s">
@@ -744,22 +744,22 @@
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>0</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="B8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>0</v>
       </c>
       <c r="N8" t="s">
@@ -773,22 +773,22 @@
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
-        <v>0</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="B9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
         <v>0</v>
       </c>
       <c r="N9" t="s">
@@ -802,22 +802,22 @@
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
-        <v>0</v>
-      </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="K10" s="4">
-        <v>0</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
         <v>0</v>
       </c>
       <c r="N10" t="s">
@@ -831,22 +831,22 @@
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
-        <v>0</v>
-      </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
+      <c r="B11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
         <v>0</v>
       </c>
       <c r="N11" t="s">
@@ -860,144 +860,140 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="5">
         <f>SUM(B2:B12)</f>
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <f>SUM(C2:C12)</f>
         <v>3</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="5">
         <f>SUM(D2:D12)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="5">
         <f>SUM(E2:E12)</f>
         <v>20</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f>SUM(F2:F12)</f>
         <v>4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="5">
         <f>SUM(H2:H12)</f>
         <v>4</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="5">
         <f>SUM(I2:I12)</f>
         <v>3</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <f>SUM(J2:J12)</f>
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="5">
         <f>SUM(K2:K12)</f>
         <v>9</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f>SUM(L2:L12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="4">
-        <v>9</v>
-      </c>
-      <c r="O17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="4">
+        <v>35</v>
+      </c>
+      <c r="B17" s="5">
         <f>E13</f>
         <v>20</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C17" s="5">
         <f>K13</f>
         <v>9</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D17" s="5">
         <v>59</v>
       </c>
-      <c r="E21" s="4">
-        <f>SUM(B21:D21)</f>
+      <c r="E17" s="5">
+        <f>SUM(B17:D17)</f>
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
         <f>F13</f>
         <v>4</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C19" s="5">
         <f>L13</f>
         <v>8</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D19" s="5">
         <v>3</v>
       </c>
-      <c r="E23" s="4">
-        <f>SUM(B23:D23)</f>
+      <c r="E19" s="5">
+        <f>SUM(B19:D19)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B21" s="5">
         <f>C13+D13</f>
         <v>4</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D21" s="5">
         <v>5</v>
       </c>
-      <c r="E25" s="4">
-        <f>SUM(B25:D25)</f>
+      <c r="E21" s="5">
+        <f>SUM(B21:D21)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4">
+      <c r="C23" s="5">
         <f>I13+J13</f>
         <v>4</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D23" s="5">
         <v>5</v>
       </c>
-      <c r="E27" s="4">
-        <f>SUM(B27:D27)</f>
+      <c r="E23" s="5">
+        <f>SUM(C23:D23)</f>
         <v>9</v>
       </c>
     </row>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Serial #</t>
   </si>
@@ -77,12 +77,6 @@
     <t>KU15P x12 14G FireFly</t>
   </si>
   <si>
-    <t>VU7P socket</t>
-  </si>
-  <si>
-    <t>KU15P socket</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>PSB</t>
   </si>
   <si>
-    <t>needs LGA80D heatsink</t>
-  </si>
-  <si>
     <t>W231</t>
   </si>
   <si>
@@ -107,18 +98,12 @@
     <t>mated to SM, needs fireflys</t>
   </si>
   <si>
-    <t>IND072 replaced, need to re-attach capacitors and test</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
     <t>sent to BU, has empty VU7P socket</t>
   </si>
   <si>
-    <t>needs IND045 DC-DC for M3V3</t>
-  </si>
-  <si>
     <t>Installed Totals</t>
   </si>
   <si>
@@ -140,13 +125,40 @@
     <t>total</t>
   </si>
   <si>
-    <t>14G x12 FireFly</t>
-  </si>
-  <si>
     <t>Used with KU15P</t>
   </si>
   <si>
     <t>Used with VU7P</t>
+  </si>
+  <si>
+    <t>KU15P and VU7P soldered, needs LGA80D heatsink</t>
+  </si>
+  <si>
+    <t>could get KU15P, bad power for VU7P</t>
+  </si>
+  <si>
+    <t>VU7P socketed</t>
+  </si>
+  <si>
+    <t>KU15P socketed</t>
+  </si>
+  <si>
+    <t>could get VU7P, bad power for KU15P</t>
+  </si>
+  <si>
+    <t>3 pieces are missing</t>
+  </si>
+  <si>
+    <t>14G x12 FireFly (long)</t>
+  </si>
+  <si>
+    <t>14G x12 FireFly (short)</t>
+  </si>
+  <si>
+    <t>short will not work in back row</t>
+  </si>
+  <si>
+    <t>2 are on loan</t>
   </si>
 </sst>
 </file>
@@ -162,12 +174,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,7 +200,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -201,6 +219,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,425 +518,375 @@
     <col min="6" max="7" width="11" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5"/>
     <col min="9" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="12" width="11.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="63.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
+      <c r="D3" s="5">
+        <v>0</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="5">
+      <c r="G3" s="5">
         <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
-      </c>
-      <c r="K3" s="5">
         <v>3</v>
       </c>
-      <c r="L3" s="5">
+      <c r="J3" s="5">
         <v>4</v>
       </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
-        <v>1</v>
+      <c r="D4" s="5">
+        <v>0</v>
       </c>
       <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
-        <v>2</v>
-      </c>
-      <c r="H4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5">
         <v>1</v>
       </c>
-      <c r="C5" s="5">
-        <v>1</v>
+      <c r="D5" s="5">
+        <v>0</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="G5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="N5" t="s">
-        <v>21</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C6" s="5">
         <v>1</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
         <v>2</v>
       </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
+      <c r="I6" s="5">
+        <v>3</v>
+      </c>
       <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5">
         <v>4</v>
       </c>
-      <c r="N6" t="s">
-        <v>21</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
+      <c r="D7" s="5">
         <v>0</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5">
         <v>0</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="N8" t="s">
-        <v>23</v>
-      </c>
-      <c r="O8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5">
         <v>0</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
         <v>0</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5">
-        <v>0</v>
-      </c>
-      <c r="N10" t="s">
-        <v>23</v>
-      </c>
-      <c r="O10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
+      <c r="D11" s="5">
         <v>0</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" s="5">
-        <v>0</v>
-      </c>
-      <c r="N11" t="s">
-        <v>23</v>
-      </c>
-      <c r="O11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5">
         <f>SUM(B2:B12)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="5">
         <f>SUM(C2:C12)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5">
         <f>SUM(D2:D12)</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" s="5">
         <f>SUM(E2:E12)</f>
-        <v>20</v>
-      </c>
-      <c r="F13" s="5">
-        <f>SUM(F2:F12)</f>
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>SUM(G2:G12)</f>
+        <v>3</v>
       </c>
       <c r="H13" s="5">
         <f>SUM(H2:H12)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I13" s="5">
         <f>SUM(I2:I12)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J13" s="5">
         <f>SUM(J2:J12)</f>
-        <v>1</v>
-      </c>
-      <c r="K13" s="5">
-        <f>SUM(K2:K12)</f>
-        <v>9</v>
-      </c>
-      <c r="L13" s="5">
-        <f>SUM(L2:L12)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -923,78 +894,107 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5">
+        <f>D13</f>
+        <v>10</v>
+      </c>
+      <c r="C17" s="5">
+        <f>I13</f>
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
+        <f>E17-(B17+C17)</f>
+        <v>59</v>
+      </c>
+      <c r="E17" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="5">
         <f>E13</f>
-        <v>20</v>
-      </c>
-      <c r="C17" s="5">
-        <f>K13</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="5">
+        <f>J13</f>
+        <v>8</v>
+      </c>
+      <c r="D19" s="5">
+        <f>E19-(B19+C19)</f>
+        <v>5</v>
+      </c>
+      <c r="E19" s="5">
+        <v>15</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="5">
+        <v>0</v>
+      </c>
+      <c r="C21" s="5">
+        <v>0</v>
+      </c>
+      <c r="D21" s="5">
+        <f>E21-(B21+C21)</f>
+        <v>6</v>
+      </c>
+      <c r="E21" s="5">
+        <v>6</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="5">
+        <f>B13+C13</f>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5">
+        <f>E23-B23</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="5">
+        <f>G13+H13</f>
         <v>9</v>
       </c>
-      <c r="D17" s="5">
-        <v>59</v>
-      </c>
-      <c r="E17" s="5">
-        <f>SUM(B17:D17)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="5">
-        <f>F13</f>
-        <v>4</v>
-      </c>
-      <c r="C19" s="5">
-        <f>L13</f>
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-      <c r="E19" s="5">
-        <f>SUM(B19:D19)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="5">
-        <f>C13+D13</f>
-        <v>4</v>
-      </c>
-      <c r="D21" s="5">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5">
-        <f>SUM(B21:D21)</f>
+      <c r="D25" s="5">
+        <f>E25-C25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="5">
-        <f>I13+J13</f>
-        <v>4</v>
-      </c>
-      <c r="D23" s="5">
-        <v>5</v>
-      </c>
-      <c r="E23" s="5">
-        <f>SUM(C23:D23)</f>
-        <v>9</v>
+      <c r="F25" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -998,7 +998,8 @@
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="3" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>Serial #</t>
   </si>
@@ -65,18 +65,12 @@
     <t>KU15P</t>
   </si>
   <si>
-    <t>VU7P x12 14G FireFly</t>
-  </si>
-  <si>
     <t>VU7P x4 25G FireFly</t>
   </si>
   <si>
     <t>KU15P x4 25G FireFly</t>
   </si>
   <si>
-    <t>KU15P x12 14G FireFly</t>
-  </si>
-  <si>
     <t>Location</t>
   </si>
   <si>
@@ -86,79 +80,88 @@
     <t>PSB</t>
   </si>
   <si>
+    <t>checking VU7P socket for JTAG chain, KU15P fully checked by Ed</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>sent to BU, has empty VU7P socket</t>
+  </si>
+  <si>
+    <t>Installed Totals</t>
+  </si>
+  <si>
+    <t>VU7P soldered</t>
+  </si>
+  <si>
+    <t>KU15P soldered</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>25G x4 FireFly</t>
+  </si>
+  <si>
+    <t>unused</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Used with KU15P</t>
+  </si>
+  <si>
+    <t>Used with VU7P</t>
+  </si>
+  <si>
+    <t>VU7P socketed</t>
+  </si>
+  <si>
+    <t>KU15P socketed</t>
+  </si>
+  <si>
+    <t>3 pieces are missing</t>
+  </si>
+  <si>
+    <t>14G x12 FireFly (long)</t>
+  </si>
+  <si>
+    <t>14G x12 FireFly (short)</t>
+  </si>
+  <si>
+    <t>short will not work in back row</t>
+  </si>
+  <si>
+    <t>2 are on loan</t>
+  </si>
+  <si>
+    <t>VU7P x12 14G FireFly (short)</t>
+  </si>
+  <si>
+    <t>VU7P x12 14G FireFly (long)</t>
+  </si>
+  <si>
+    <t>KU15P x12 14G FireFly (short)</t>
+  </si>
+  <si>
+    <t>KU15P x12 14G FireFly (long)</t>
+  </si>
+  <si>
+    <t>sent to BU, KU15P and VU7P soldered, needs LGA80D heatsink</t>
+  </si>
+  <si>
+    <t>mated to SM, fireflys have individual heatsinks</t>
+  </si>
+  <si>
     <t>W231</t>
   </si>
   <si>
-    <t>checking VU7P socket for JTAG chain, KU15P fully checked by Ed</t>
-  </si>
-  <si>
-    <t>ready to go to MPL for FPGAs</t>
-  </si>
-  <si>
-    <t>mated to SM, needs fireflys</t>
-  </si>
-  <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>sent to BU, has empty VU7P socket</t>
-  </si>
-  <si>
-    <t>Installed Totals</t>
-  </si>
-  <si>
-    <t>VU7P soldered</t>
-  </si>
-  <si>
-    <t>KU15P soldered</t>
-  </si>
-  <si>
-    <t>Inventory</t>
-  </si>
-  <si>
-    <t>25G x4 FireFly</t>
-  </si>
-  <si>
-    <t>unused</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>Used with KU15P</t>
-  </si>
-  <si>
-    <t>Used with VU7P</t>
-  </si>
-  <si>
-    <t>KU15P and VU7P soldered, needs LGA80D heatsink</t>
-  </si>
-  <si>
-    <t>could get KU15P, bad power for VU7P</t>
-  </si>
-  <si>
-    <t>VU7P socketed</t>
-  </si>
-  <si>
-    <t>KU15P socketed</t>
-  </si>
-  <si>
-    <t>could get VU7P, bad power for KU15P</t>
-  </si>
-  <si>
-    <t>3 pieces are missing</t>
-  </si>
-  <si>
-    <t>14G x12 FireFly (long)</t>
-  </si>
-  <si>
-    <t>14G x12 FireFly (short)</t>
-  </si>
-  <si>
-    <t>short will not work in back row</t>
-  </si>
-  <si>
-    <t>2 are on loan</t>
+    <t>being prepped for eventual use at TIF</t>
+  </si>
+  <si>
+    <t>ready for FPGA testing and final assembly</t>
   </si>
 </sst>
 </file>
@@ -174,18 +177,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -220,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -503,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,102 +511,93 @@
     <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
     <col min="3" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="5" customWidth="1"/>
-    <col min="6" max="7" width="11" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5"/>
-    <col min="9" max="10" width="11.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="63.42578125" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7" max="8" width="11" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="H1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="5">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="5">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="I3" s="5">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>4</v>
-      </c>
-      <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -617,28 +605,28 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,28 +634,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -680,164 +668,104 @@
       <c r="E6" s="5">
         <v>2</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
       <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5">
         <v>3</v>
       </c>
-      <c r="J6" s="5">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="L6" t="s">
+      <c r="N6" t="s">
         <v>19</v>
       </c>
-      <c r="M6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="5">
-        <v>0</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="L7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="L11" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5">
         <f>SUM(B2:B12)</f>
@@ -849,19 +777,19 @@
       </c>
       <c r="D13" s="5">
         <f>SUM(D2:D12)</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E13" s="5">
         <f>SUM(E2:E12)</f>
         <v>2</v>
       </c>
-      <c r="G13" s="5">
-        <f>SUM(G2:G12)</f>
-        <v>3</v>
+      <c r="F13" s="5">
+        <f>SUM(F2:F12)</f>
+        <v>2</v>
       </c>
       <c r="H13" s="5">
         <f>SUM(H2:H12)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I13" s="5">
         <f>SUM(I2:I12)</f>
@@ -869,24 +797,32 @@
       </c>
       <c r="J13" s="5">
         <f>SUM(J2:J12)</f>
+        <v>11</v>
+      </c>
+      <c r="K13" s="5">
+        <f>SUM(K2:K12)</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="L13" s="5">
+        <f>SUM(L2:L12)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>34</v>
-      </c>
       <c r="C16" s="6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -894,22 +830,24 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B17" s="5">
         <f>D13</f>
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C17" s="5">
-        <f>I13</f>
-        <v>6</v>
+        <f>J13</f>
+        <v>11</v>
       </c>
       <c r="D17" s="5">
         <f>E17-(B17+C17)</f>
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <v>75</v>
@@ -917,14 +855,14 @@
     </row>
     <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B19" s="5">
         <f>E13</f>
         <v>2</v>
       </c>
       <c r="C19" s="5">
-        <f>J13</f>
+        <f>K13</f>
         <v>8</v>
       </c>
       <c r="D19" s="5">
@@ -935,31 +873,33 @@
         <v>15</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <f>F13</f>
+        <v>2</v>
       </c>
       <c r="C21" s="5">
-        <v>0</v>
+        <f>L13</f>
+        <v>2</v>
       </c>
       <c r="D21" s="5">
         <f>E21-(B21+C21)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E21" s="5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,7 +923,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="5">
-        <f>G13+H13</f>
+        <f>H13+I13</f>
         <v>9</v>
       </c>
       <c r="D25" s="5">
@@ -994,7 +934,7 @@
         <v>9</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Serial #</t>
   </si>
@@ -80,15 +80,9 @@
     <t>PSB</t>
   </si>
   <si>
-    <t>checking VU7P socket for JTAG chain, KU15P fully checked by Ed</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
-    <t>sent to BU, has empty VU7P socket</t>
-  </si>
-  <si>
     <t>Installed Totals</t>
   </si>
   <si>
@@ -149,12 +143,6 @@
     <t>KU15P x12 14G FireFly (long)</t>
   </si>
   <si>
-    <t>sent to BU, KU15P and VU7P soldered, needs LGA80D heatsink</t>
-  </si>
-  <si>
-    <t>mated to SM, fireflys have individual heatsinks</t>
-  </si>
-  <si>
     <t>W231</t>
   </si>
   <si>
@@ -162,6 +150,24 @@
   </si>
   <si>
     <t>ready for FPGA testing and final assembly</t>
+  </si>
+  <si>
+    <t>sent to BU</t>
+  </si>
+  <si>
+    <t>ATLAS board</t>
+  </si>
+  <si>
+    <t>socketed FPGAs, works OK</t>
+  </si>
+  <si>
+    <t>socketed FPGAs, mated to SM, fireflys have individual heatsinks</t>
+  </si>
+  <si>
+    <t>prepped as a backup for use at TIF</t>
+  </si>
+  <si>
+    <t>socketed FPGAs, back from BU, has empty VU7P socket</t>
   </si>
 </sst>
 </file>
@@ -177,12 +183,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -197,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -220,6 +232,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,22 +519,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" style="5" customWidth="1"/>
-    <col min="3" max="4" width="11" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
     <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="11" style="5" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="5"/>
+    <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="5" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -524,34 +545,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>15</v>
@@ -564,377 +585,754 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
       <c r="C2" s="5">
         <v>1</v>
       </c>
       <c r="D2" s="5">
         <v>8</v>
       </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0</v>
+      </c>
+      <c r="J2" s="5">
+        <v>0</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
       <c r="N2" t="s">
         <v>17</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>4</v>
-      </c>
-      <c r="N3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>20</v>
-      </c>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="5">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="5">
         <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
       </c>
       <c r="J4" s="5">
         <v>3</v>
       </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
       <c r="L4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2</v>
-      </c>
-      <c r="L5" s="5">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" t="s">
-        <v>42</v>
-      </c>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
       </c>
       <c r="C6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="5">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E6" s="5">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" s="5">
         <v>3</v>
       </c>
       <c r="K6" s="5">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>43</v>
-      </c>
-      <c r="O7" t="s">
-        <v>45</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1</v>
-      </c>
-      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="O8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1</v>
-      </c>
-      <c r="I9" s="7">
-        <v>1</v>
-      </c>
-      <c r="N9" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" t="s">
-        <v>45</v>
-      </c>
+    <row r="9" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>39</v>
+      </c>
+      <c r="O12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" t="s">
+      <c r="B18" s="5">
+        <v>0</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1</v>
+      </c>
+      <c r="D18" s="5">
+        <v>0</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>0</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+      <c r="D20" s="5">
+        <v>0</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>1</v>
+      </c>
+      <c r="J20" s="5">
+        <v>3</v>
+      </c>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
+        <v>39</v>
+      </c>
+      <c r="O20" t="s">
         <v>43</v>
       </c>
-      <c r="O10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    </row>
+    <row r="21" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="5">
+        <f>SUM(B2:B21)</f>
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <f>SUM(C2:C21)</f>
+        <v>5</v>
+      </c>
+      <c r="D22" s="5">
+        <f>SUM(D2:D21)</f>
+        <v>32</v>
+      </c>
+      <c r="E22" s="5">
+        <f>SUM(E2:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <f>SUM(F2:F21)</f>
+        <v>3</v>
+      </c>
+      <c r="H22" s="5">
+        <f>SUM(H2:H21)</f>
+        <v>3</v>
+      </c>
+      <c r="I22" s="5">
+        <f>SUM(I2:I21)</f>
+        <v>6</v>
+      </c>
+      <c r="J22" s="5">
+        <f>SUM(J2:J21)</f>
+        <v>17</v>
+      </c>
+      <c r="K22" s="5">
+        <f>SUM(K2:K21)</f>
         <v>10</v>
       </c>
-      <c r="I11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5">
-        <f>SUM(B2:B12)</f>
+      <c r="L22" s="5">
+        <f>SUM(L2:L21)</f>
         <v>2</v>
       </c>
-      <c r="C13" s="5">
-        <f>SUM(C2:C12)</f>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="5">
+        <f>D22</f>
+        <v>32</v>
+      </c>
+      <c r="C26" s="5">
+        <f>J22</f>
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
+        <f>E26-(B26+C26)</f>
+        <v>26</v>
+      </c>
+      <c r="E26" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="5">
+        <f>E22</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="5">
+        <f>K22</f>
+        <v>10</v>
+      </c>
+      <c r="D28" s="5">
+        <f>E28-(B28+C28)</f>
         <v>5</v>
       </c>
-      <c r="D13" s="5">
-        <f>SUM(D2:D12)</f>
-        <v>24</v>
-      </c>
-      <c r="E13" s="5">
-        <f>SUM(E2:E12)</f>
+      <c r="E28" s="5">
+        <v>15</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="5">
+        <f>F22</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="5">
+        <f>L22</f>
         <v>2</v>
       </c>
-      <c r="F13" s="5">
-        <f>SUM(F2:F12)</f>
+      <c r="D30" s="5">
+        <f>E30-(B30+C30)</f>
         <v>2</v>
       </c>
-      <c r="H13" s="5">
-        <f>SUM(H2:H12)</f>
-        <v>3</v>
-      </c>
-      <c r="I13" s="5">
-        <f>SUM(I2:I12)</f>
-        <v>6</v>
-      </c>
-      <c r="J13" s="5">
-        <f>SUM(J2:J12)</f>
+      <c r="E30" s="5">
+        <v>7</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="5">
-        <f>SUM(K2:K12)</f>
+      <c r="B32" s="5">
+        <f>B22+C22</f>
+        <v>7</v>
+      </c>
+      <c r="D32" s="5">
+        <f>E32-B32</f>
+        <v>1</v>
+      </c>
+      <c r="E32" s="5">
         <v>8</v>
       </c>
-      <c r="L13" s="5">
-        <f>SUM(L2:L12)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-    </row>
-    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="5">
-        <f>D13</f>
-        <v>24</v>
-      </c>
-      <c r="C17" s="5">
-        <f>J13</f>
-        <v>11</v>
-      </c>
-      <c r="D17" s="5">
-        <f>E17-(B17+C17)</f>
-        <v>40</v>
-      </c>
-      <c r="E17" s="5">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="5">
-        <f>E13</f>
-        <v>2</v>
-      </c>
-      <c r="C19" s="5">
-        <f>K13</f>
-        <v>8</v>
-      </c>
-      <c r="D19" s="5">
-        <f>E19-(B19+C19)</f>
-        <v>5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>15</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="5">
+        <f>H22+I22</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="5">
+        <f>E34-C34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="5">
-        <f>F13</f>
-        <v>2</v>
-      </c>
-      <c r="C21" s="5">
-        <f>L13</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="5">
-        <f>E21-(B21+C21)</f>
-        <v>3</v>
-      </c>
-      <c r="E21" s="5">
-        <v>7</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="5">
-        <f>B13+C13</f>
-        <v>7</v>
-      </c>
-      <c r="D23" s="5">
-        <f>E23-B23</f>
-        <v>1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="5">
-        <f>H13+I13</f>
-        <v>9</v>
-      </c>
-      <c r="D25" s="5">
-        <f>E25-C25</f>
-        <v>0</v>
-      </c>
-      <c r="E25" s="5">
-        <v>9</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>Serial #</t>
   </si>
@@ -146,9 +146,6 @@
     <t>W231</t>
   </si>
   <si>
-    <t>being prepped for eventual use at TIF</t>
-  </si>
-  <si>
     <t>ready for FPGA testing and final assembly</t>
   </si>
   <si>
@@ -164,10 +161,16 @@
     <t>socketed FPGAs, mated to SM, fireflys have individual heatsinks</t>
   </si>
   <si>
-    <t>prepped as a backup for use at TIF</t>
-  </si>
-  <si>
     <t>socketed FPGAs, back from BU, has empty VU7P socket</t>
+  </si>
+  <si>
+    <t>sent to TIF Oct 27, 2019</t>
+  </si>
+  <si>
+    <t>TIF</t>
+  </si>
+  <si>
+    <t>broken power supply, was intended for use at TIF</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -677,7 +680,7 @@
         <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,7 +738,7 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +796,7 @@
         <v>17</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -851,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,10 +909,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -964,7 +967,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="O14" t="s">
         <v>46</v>
@@ -1025,7 +1028,7 @@
         <v>39</v>
       </c>
       <c r="O16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1083,7 +1086,7 @@
         <v>39</v>
       </c>
       <c r="O18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1138,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>Serial #</t>
   </si>
@@ -128,9 +128,6 @@
     <t>short will not work in back row</t>
   </si>
   <si>
-    <t>2 are on loan</t>
-  </si>
-  <si>
     <t>VU7P x12 14G FireFly (short)</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
     <t>W231</t>
   </si>
   <si>
-    <t>ready for FPGA testing and final assembly</t>
-  </si>
-  <si>
     <t>sent to BU</t>
   </si>
   <si>
@@ -158,12 +152,6 @@
     <t>socketed FPGAs, works OK</t>
   </si>
   <si>
-    <t>socketed FPGAs, mated to SM, fireflys have individual heatsinks</t>
-  </si>
-  <si>
-    <t>socketed FPGAs, back from BU, has empty VU7P socket</t>
-  </si>
-  <si>
     <t>sent to TIF Oct 27, 2019</t>
   </si>
   <si>
@@ -171,6 +159,21 @@
   </si>
   <si>
     <t>broken power supply, was intended for use at TIF</t>
+  </si>
+  <si>
+    <t>mated to SM 05</t>
+  </si>
+  <si>
+    <t>mated to SM 09</t>
+  </si>
+  <si>
+    <t>2 on loan were returned</t>
+  </si>
+  <si>
+    <t>bare board</t>
+  </si>
+  <si>
+    <t>socketed VU7P, no optics</t>
   </si>
 </sst>
 </file>
@@ -212,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -242,6 +245,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,10 +561,10 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>29</v>
@@ -572,10 +576,10 @@
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N1" s="4" t="s">
         <v>15</v>
@@ -619,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -662,25 +666,25 @@
         <v>0</v>
       </c>
       <c r="H4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="N4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -738,7 +742,7 @@
         <v>17</v>
       </c>
       <c r="O6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,34 +773,34 @@
         <v>0</v>
       </c>
       <c r="D8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
       <c r="F8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <v>0</v>
       </c>
       <c r="J8" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="O8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -854,7 +858,7 @@
         <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,7 +916,7 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -967,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1001,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -1016,7 +1020,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K16" s="5">
         <v>0</v>
@@ -1025,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1059,13 +1063,13 @@
         <v>1</v>
       </c>
       <c r="D18" s="5">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="5">
         <v>0</v>
@@ -1074,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" s="5">
         <v>0</v>
@@ -1083,10 +1087,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1144,7 +1148,7 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1178,19 +1182,19 @@
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22" s="5">
         <f>SUM(F2:F21)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22" s="5">
         <f>SUM(H2:H21)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I22" s="5">
         <f>SUM(I2:I21)</f>
@@ -1198,18 +1202,18 @@
       </c>
       <c r="J22" s="5">
         <f>SUM(J2:J21)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K22" s="5">
         <f>SUM(K2:K21)</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" s="5">
         <f>SUM(L2:L21)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
@@ -1234,41 +1238,64 @@
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
     </row>
-    <row r="26" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="5">
         <f>D22</f>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="C26" s="5">
         <f>J22</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D26" s="5">
         <f>E26-(B26+C26)</f>
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5">
         <v>75</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:15" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" s="5">
         <f>E22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C28" s="5">
         <f>K22</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D28" s="5">
         <f>E28-(B28+C28)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" s="5">
         <v>15</v>
@@ -1276,21 +1303,40 @@
       <c r="F28" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
       <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:15" ht="60" x14ac:dyDescent="0.25">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B30" s="5">
         <f>F22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C30" s="5">
         <f>L22</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="5">
         <f>E30-(B30+C30)</f>
@@ -1302,8 +1348,30 @@
       <c r="F30" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1311,6 +1379,7 @@
         <f>B22+C22</f>
         <v>7</v>
       </c>
+      <c r="C32" s="5"/>
       <c r="D32" s="5">
         <f>E32-B32</f>
         <v>1</v>
@@ -1318,25 +1387,56 @@
       <c r="E32" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B34" s="5"/>
       <c r="C34" s="5">
         <f>H22+I22</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D34" s="5">
         <f>E34-C34</f>
         <v>0</v>
       </c>
       <c r="E34" s="5">
-        <v>9</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>34</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -1,30 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\hardware\CMS_Trigger\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA045487-8479-4CF9-80C3-08CC127F87B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27195" windowHeight="10230"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
   <si>
     <t>Serial #</t>
   </si>
@@ -71,15 +80,9 @@
     <t>KU15P x4 25G FireFly</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>PSB</t>
-  </si>
-  <si>
     <t>BU</t>
   </si>
   <si>
@@ -174,12 +177,36 @@
   </si>
   <si>
     <t>socketed VU7P, no optics</t>
+  </si>
+  <si>
+    <t>Major Location</t>
+  </si>
+  <si>
+    <t>Minor Location</t>
+  </si>
+  <si>
+    <t>CERN</t>
+  </si>
+  <si>
+    <t>Cornell</t>
+  </si>
+  <si>
+    <t>PSB ATCA crate</t>
+  </si>
+  <si>
+    <t>PSB Peter's lab</t>
+  </si>
+  <si>
+    <t>Peter's house</t>
+  </si>
+  <si>
+    <t>Peter's House</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -525,11 +552,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,52 +570,57 @@
     <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
     <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="63.42578125" customWidth="1"/>
+    <col min="13" max="13" width="2.28515625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -622,14 +654,17 @@
       <c r="L2" s="5">
         <v>0</v>
       </c>
-      <c r="N2" t="s">
-        <v>38</v>
+      <c r="N2" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -643,10 +678,11 @@
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
+      <c r="N3" s="9"/>
       <c r="O3" s="10"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" s="10"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -680,14 +716,17 @@
       <c r="L4" s="5">
         <v>0</v>
       </c>
-      <c r="N4" t="s">
-        <v>38</v>
+      <c r="N4" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="P4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -701,10 +740,11 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
+      <c r="N5" s="9"/>
       <c r="O5" s="10"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" s="10"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -738,14 +778,17 @@
       <c r="L6" s="5">
         <v>1</v>
       </c>
-      <c r="N6" t="s">
-        <v>17</v>
+      <c r="N6" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -759,10 +802,11 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
+      <c r="N7" s="9"/>
       <c r="O7" s="10"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" s="10"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -796,14 +840,17 @@
       <c r="L8" s="5">
         <v>0</v>
       </c>
-      <c r="N8" t="s">
-        <v>38</v>
+      <c r="N8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -817,10 +864,11 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
+      <c r="N9" s="9"/>
       <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,14 +902,14 @@
       <c r="L10" s="5">
         <v>0</v>
       </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -875,10 +923,11 @@
       <c r="K11" s="9"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
+      <c r="N11" s="9"/>
       <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -912,14 +961,14 @@
       <c r="L12" s="5">
         <v>0</v>
       </c>
-      <c r="N12" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -933,10 +982,11 @@
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
-      <c r="N13" s="10"/>
+      <c r="N13" s="9"/>
       <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -970,14 +1020,17 @@
       <c r="L14" s="5">
         <v>0</v>
       </c>
-      <c r="N14" t="s">
-        <v>43</v>
+      <c r="N14" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="O14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="P14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -991,10 +1044,11 @@
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
-      <c r="N15" s="10"/>
+      <c r="N15" s="9"/>
       <c r="O15" s="10"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" s="10"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1028,14 +1082,17 @@
       <c r="L16" s="5">
         <v>0</v>
       </c>
-      <c r="N16" t="s">
-        <v>17</v>
+      <c r="N16" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1049,10 +1106,11 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
       <c r="M17" s="9"/>
-      <c r="N17" s="10"/>
+      <c r="N17" s="9"/>
       <c r="O17" s="10"/>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" s="10"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1086,14 +1144,17 @@
       <c r="L18" s="5">
         <v>0</v>
       </c>
-      <c r="N18" t="s">
-        <v>17</v>
+      <c r="N18" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1107,10 +1168,11 @@
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
       <c r="M19" s="9"/>
-      <c r="N19" s="10"/>
+      <c r="N19" s="9"/>
       <c r="O19" s="10"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1144,14 +1206,14 @@
       <c r="L20" s="5">
         <v>0</v>
       </c>
-      <c r="N20" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1165,12 +1227,13 @@
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
       <c r="M21" s="9"/>
-      <c r="N21" s="10"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="10"/>
-    </row>
-    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
@@ -1213,21 +1276,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E25" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -1237,10 +1300,11 @@
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
-    </row>
-    <row r="26" spans="1:15" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="N25" s="6"/>
+    </row>
+    <row r="26" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="5">
         <f>D22</f>
@@ -1265,8 +1329,9 @@
       <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
-    </row>
-    <row r="27" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1280,10 +1345,11 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
-    </row>
-    <row r="28" spans="1:15" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="5">
         <f>E22</f>
@@ -1301,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -1310,8 +1376,9 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
       <c r="M28" s="5"/>
-    </row>
-    <row r="29" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1325,10 +1392,11 @@
       <c r="K29" s="5"/>
       <c r="L29" s="5"/>
       <c r="M29" s="5"/>
-    </row>
-    <row r="30" spans="1:15" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="1:16" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5">
         <f>F22</f>
@@ -1346,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -1355,8 +1423,9 @@
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
-    </row>
-    <row r="31" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1370,8 +1439,9 @@
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
-    </row>
-    <row r="32" spans="1:15" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1395,8 +1465,9 @@
       <c r="K32" s="5"/>
       <c r="L32" s="5"/>
       <c r="M32" s="5"/>
-    </row>
-    <row r="33" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1410,8 +1481,9 @@
       <c r="K33" s="5"/>
       <c r="L33" s="5"/>
       <c r="M33" s="5"/>
-    </row>
-    <row r="34" spans="1:13" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1428,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -1437,6 +1509,7 @@
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
     </row>
   </sheetData>
   <printOptions gridLines="1"/>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA045487-8479-4CF9-80C3-08CC127F87B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA045487-8479-4CF9-80C3-08CC127F87B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35E9C5C0-5041-8642-B553-B307E9831031}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
   <si>
     <t>Serial #</t>
   </si>
@@ -155,18 +155,12 @@
     <t>socketed FPGAs, works OK</t>
   </si>
   <si>
-    <t>sent to TIF Oct 27, 2019</t>
-  </si>
-  <si>
     <t>TIF</t>
   </si>
   <si>
     <t>broken power supply, was intended for use at TIF</t>
   </si>
   <si>
-    <t>mated to SM 05</t>
-  </si>
-  <si>
     <t>mated to SM 09</t>
   </si>
   <si>
@@ -201,6 +195,12 @@
   </si>
   <si>
     <t>Peter's House</t>
+  </si>
+  <si>
+    <t>mated to SM 10</t>
+  </si>
+  <si>
+    <t>sent to TIF Oct 27, 2019. Mated to SM05.</t>
   </si>
 </sst>
 </file>
@@ -555,28 +555,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
-    <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.4140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.01171875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.28125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11.02734375" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.76171875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.14453125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.33984375" style="5" customWidth="1"/>
+    <col min="10" max="12" width="11.43359375" style="5" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="55.5703125" customWidth="1"/>
+    <col min="14" max="14" width="9.14453125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="16.94921875" customWidth="1"/>
+    <col min="16" max="16" width="55.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,16 +611,16 @@
         <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -655,16 +655,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -682,7 +682,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -717,16 +717,16 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O4" t="s">
         <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -744,7 +744,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O6" t="s">
         <v>51</v>
-      </c>
-      <c r="O6" t="s">
-        <v>53</v>
       </c>
       <c r="P6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -806,7 +806,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,16 +841,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -868,7 +868,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -909,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -927,7 +927,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,7 +968,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -986,7 +986,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1048,7 +1048,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,16 +1083,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1110,7 +1110,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,16 +1145,16 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1172,7 +1172,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1231,7 +1231,7 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,7 +1302,7 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1331,7 +1331,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1347,7 +1347,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1378,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1394,7 +1394,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:16" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1425,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1441,7 +1441,7 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
@@ -1467,7 +1467,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1483,7 +1483,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{DA045487-8479-4CF9-80C3-08CC127F87B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35E9C5C0-5041-8642-B553-B307E9831031}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB7065-3EFE-4445-AD35-5A5CEC1D0873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="3195" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
   <si>
     <t>Serial #</t>
   </si>
@@ -143,9 +143,6 @@
     <t>KU15P x12 14G FireFly (long)</t>
   </si>
   <si>
-    <t>W231</t>
-  </si>
-  <si>
     <t>sent to BU</t>
   </si>
   <si>
@@ -158,9 +155,6 @@
     <t>TIF</t>
   </si>
   <si>
-    <t>broken power supply, was intended for use at TIF</t>
-  </si>
-  <si>
     <t>mated to SM 09</t>
   </si>
   <si>
@@ -170,9 +164,6 @@
     <t>bare board</t>
   </si>
   <si>
-    <t>socketed VU7P, no optics</t>
-  </si>
-  <si>
     <t>Major Location</t>
   </si>
   <si>
@@ -188,19 +179,16 @@
     <t>PSB ATCA crate</t>
   </si>
   <si>
-    <t>PSB Peter's lab</t>
-  </si>
-  <si>
-    <t>Peter's house</t>
-  </si>
-  <si>
-    <t>Peter's House</t>
-  </si>
-  <si>
     <t>mated to SM 10</t>
   </si>
   <si>
     <t>sent to TIF Oct 27, 2019. Mated to SM05.</t>
+  </si>
+  <si>
+    <t>Charlie's house</t>
+  </si>
+  <si>
+    <t>Rui's house</t>
   </si>
 </sst>
 </file>
@@ -555,28 +543,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.4140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.01171875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="9.28125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="11.02734375" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.76171875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.33984375" style="5" customWidth="1"/>
-    <col min="10" max="12" width="11.43359375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="5" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="11" style="5" customWidth="1"/>
+    <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
+    <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="9.14453125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16.94921875" customWidth="1"/>
-    <col min="16" max="16" width="55.5546875" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
+    <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="16" max="16" width="55.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -611,16 +599,16 @@
         <v>34</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -631,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -655,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -682,7 +670,7 @@
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -690,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="5">
         <v>0</v>
@@ -717,16 +705,16 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -744,7 +732,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -779,16 +767,16 @@
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
         <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -806,15 +794,15 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -841,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="P8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -868,7 +856,7 @@
       <c r="O9" s="10"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,10 +894,10 @@
         <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -927,7 +915,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,10 +953,10 @@
         <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -986,7 +974,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="10"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="O14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1048,7 +1036,7 @@
       <c r="O15" s="10"/>
       <c r="P15" s="10"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -1083,16 +1071,16 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1110,7 +1098,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>9</v>
       </c>
@@ -1145,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="O18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1172,7 +1160,7 @@
       <c r="O19" s="10"/>
       <c r="P19" s="10"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1210,10 +1198,10 @@
         <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1231,21 +1219,21 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
     </row>
-    <row r="22" spans="1:16" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
@@ -1276,7 +1264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1302,13 +1290,13 @@
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
     </row>
-    <row r="26" spans="1:16" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B26" s="5">
         <f>D22</f>
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C26" s="5">
         <f>J22</f>
@@ -1316,7 +1304,7 @@
       </c>
       <c r="D26" s="5">
         <f>E26-(B26+C26)</f>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E26" s="5">
         <v>75</v>
@@ -1331,7 +1319,7 @@
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
     </row>
-    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1347,7 +1335,7 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5"/>
     </row>
-    <row r="28" spans="1:16" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1366,7 @@
       <c r="M28" s="5"/>
       <c r="N28" s="5"/>
     </row>
-    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1394,7 +1382,7 @@
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
     </row>
-    <row r="30" spans="1:16" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1413,7 @@
       <c r="M30" s="5"/>
       <c r="N30" s="5"/>
     </row>
-    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
@@ -1441,18 +1429,18 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B32" s="5">
         <f>B22+C22</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5">
         <f>E32-B32</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="5">
         <v>8</v>
@@ -1467,7 +1455,7 @@
       <c r="M32" s="5"/>
       <c r="N32" s="5"/>
     </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -1483,7 +1471,7 @@
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
     </row>
-    <row r="34" spans="1:14" s="11" customFormat="1" ht="41.25" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>12</v>
       </c>
@@ -1500,7 +1488,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>

--- a/Docs/CM_inventory.xlsx
+++ b/Docs/CM_inventory.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\6089-103_ATCA_mezz\GitHub\CU_PCB_6089-103\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BB7065-3EFE-4445-AD35-5A5CEC1D0873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292B2438-F0A1-405D-846B-499F294C06E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="3195" windowWidth="21600" windowHeight="11415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Serial #</t>
   </si>
@@ -68,12 +68,6 @@
     <t>010</t>
   </si>
   <si>
-    <t>VU7P</t>
-  </si>
-  <si>
-    <t>KU15P</t>
-  </si>
-  <si>
     <t>VU7P x4 25G FireFly</t>
   </si>
   <si>
@@ -101,9 +95,6 @@
     <t>25G x4 FireFly</t>
   </si>
   <si>
-    <t>unused</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -119,9 +110,6 @@
     <t>KU15P socketed</t>
   </si>
   <si>
-    <t>3 pieces are missing</t>
-  </si>
-  <si>
     <t>14G x12 FireFly (long)</t>
   </si>
   <si>
@@ -149,18 +137,12 @@
     <t>ATLAS board</t>
   </si>
   <si>
-    <t>socketed FPGAs, works OK</t>
-  </si>
-  <si>
     <t>TIF</t>
   </si>
   <si>
     <t>mated to SM 09</t>
   </si>
   <si>
-    <t>2 on loan were returned</t>
-  </si>
-  <si>
     <t>bare board</t>
   </si>
   <si>
@@ -179,25 +161,47 @@
     <t>PSB ATCA crate</t>
   </si>
   <si>
-    <t>mated to SM 10</t>
-  </si>
-  <si>
-    <t>sent to TIF Oct 27, 2019. Mated to SM05.</t>
-  </si>
-  <si>
-    <t>Charlie's house</t>
-  </si>
-  <si>
     <t>Rui's house</t>
+  </si>
+  <si>
+    <t>mated to SM01</t>
+  </si>
+  <si>
+    <t>bare board, socketed FPGAs, 25Gx12</t>
+  </si>
+  <si>
+    <t>PSB lab</t>
+  </si>
+  <si>
+    <t>Mated to SM10.</t>
+  </si>
+  <si>
+    <t>mated to SM05</t>
+  </si>
+  <si>
+    <t>With Charlie</t>
+  </si>
+  <si>
+    <t>unused / unaccounted</t>
+  </si>
+  <si>
+    <t>3 pieces are missing?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -230,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -261,6 +265,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,15 +560,16 @@
     <col min="2" max="2" width="9" style="5" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="5" customWidth="1"/>
     <col min="4" max="4" width="11" style="5" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="5" customWidth="1"/>
     <col min="7" max="7" width="5.140625" style="5" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" style="5" customWidth="1"/>
     <col min="10" max="12" width="11.42578125" style="5" customWidth="1"/>
     <col min="13" max="13" width="2.28515625" style="5" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="5" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
-    <col min="16" max="16" width="55.5703125" customWidth="1"/>
+    <col min="16" max="16" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -569,43 +577,43 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -643,13 +651,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -681,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -705,13 +713,10 @@
         <v>0</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="P4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -767,13 +772,13 @@
         <v>1</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -805,10 +810,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="5">
         <v>0</v>
@@ -829,13 +834,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="P8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -891,10 +893,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -923,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -950,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -985,7 +987,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -1009,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="O14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1047,13 +1049,13 @@
         <v>1</v>
       </c>
       <c r="D16" s="5">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <v>0</v>
@@ -1071,13 +1073,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="O16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="P16" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1133,13 +1135,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s">
         <v>47</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1168,7 +1170,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="5">
         <v>0</v>
@@ -1195,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -1221,7 +1223,7 @@
     </row>
     <row r="22" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22" s="5">
         <f>SUM(B2:B21)</f>
@@ -1229,19 +1231,19 @@
       </c>
       <c r="C22" s="5">
         <f>SUM(C2:C21)</f>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="5">
         <f>SUM(D2:D21)</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E22" s="5">
         <f>SUM(E2:E21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="5">
         <f>SUM(F2:F21)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="5">
         <f>SUM(H2:H21)</f>
@@ -1266,21 +1268,23 @@
     </row>
     <row r="25" spans="1:16" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1292,24 +1296,26 @@
     </row>
     <row r="26" spans="1:16" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="5">
         <f>D22</f>
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="C26" s="5">
         <f>J22</f>
         <v>18</v>
       </c>
       <c r="D26" s="5">
-        <f>E26-(B26+C26)</f>
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="E26" s="5">
+        <f>F26-(B26+C26+D26)</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="5">
         <v>75</v>
       </c>
-      <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
@@ -1337,28 +1343,29 @@
     </row>
     <row r="28" spans="1:16" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B28" s="5">
         <f>E22</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="5">
         <f>K22</f>
         <v>9</v>
       </c>
       <c r="D28" s="5">
-        <f>E28-(B28+C28)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" s="5">
+        <f>F28-(B28+C28+D28)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="5">
         <v>15</v>
       </c>
-      <c r="F28" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="H28" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I28" s="5"/>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
@@ -1372,8 +1379,8 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
       <c r="J29" s="5"/>
@@ -1384,28 +1391,29 @@
     </row>
     <row r="30" spans="1:16" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B30" s="5">
         <f>F22</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" s="5">
         <f>L22</f>
         <v>1</v>
       </c>
       <c r="D30" s="5">
-        <f>E30-(B30+C30)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E30" s="5">
+        <f>F30-(B30+C30+D30)</f>
+        <v>3</v>
+      </c>
+      <c r="F30" s="5">
         <v>7</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
+      <c r="H30" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
@@ -1429,76 +1437,6 @@
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
     </row>
-    <row r="32" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" s="5">
-        <f>B22+C22</f>
-        <v>8</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5">
-        <f>E32-B32</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="5">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-    </row>
-    <row r="33" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-    </row>
-    <row r="34" spans="1:14" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <f>H22+I22</f>
-        <v>7</v>
-      </c>
-      <c r="D34" s="5">
-        <f>E34-C34</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="5">
-        <v>7</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-    </row>
   </sheetData>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
